--- a/data/assetUnderMgmt.xlsx
+++ b/data/assetUnderMgmt.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -128,6 +128,15 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
+    <t>£1,317,748,674.11</t>
+  </si>
+  <si>
+    <t>£1,317,685,596.62</t>
+  </si>
+  <si>
+    <t>£63,077.49</t>
+  </si>
+  <si>
     <t>SAINSBURY'S SIPP</t>
   </si>
   <si>
@@ -245,13 +254,13 @@
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
-    <t>£170,487,116.36</t>
-  </si>
-  <si>
-    <t>£66,385,031.52</t>
-  </si>
-  <si>
-    <t>£104,102,084.84</t>
+    <t>£168,862,816.77</t>
+  </si>
+  <si>
+    <t>£65,846,294.01</t>
+  </si>
+  <si>
+    <t>£103,016,522.76</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2138,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2159,7 +2168,7 @@
         <v>0.05</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,7 +2181,7 @@
         <v>0.05</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2185,7 +2194,7 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,7 +2268,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2392,7 +2401,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2525,7 +2534,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2658,7 +2667,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2791,7 +2800,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2924,7 +2933,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3057,7 +3066,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3082,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="7">
@@ -3098,7 +3107,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="9">
@@ -3114,7 +3123,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="9">
@@ -3196,7 +3205,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3329,7 +3338,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3355,7 +3364,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7">
         <v>0.05</v>
@@ -3371,7 +3380,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
@@ -3387,7 +3396,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
@@ -3603,7 +3612,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3736,7 +3745,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -3811,10 +3820,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -3873,7 +3882,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -4006,7 +4015,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4139,7 +4148,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4272,7 +4281,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4406,7 +4415,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4539,7 +4548,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4675,7 +4684,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4774,7 +4783,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -5014,7 +5023,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -5113,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -5212,7 +5221,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -5311,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -5410,7 +5419,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -5510,7 +5519,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -5609,7 +5618,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -5639,7 +5648,7 @@
         <v>172522113.74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7">
         <v>0.05</v>
@@ -5657,7 +5666,7 @@
         <v>67198472.1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
@@ -5675,7 +5684,7 @@
         <v>105323641.64</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
@@ -6314,8 +6323,8 @@
       <c r="B3" s="6">
         <v>1329801514.27</v>
       </c>
-      <c r="C3" s="6">
-        <v>1329801514.27</v>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="7">
         <v>0.05</v>
@@ -6332,8 +6341,8 @@
       <c r="B4" s="6">
         <v>1329737781.34</v>
       </c>
-      <c r="C4" s="6">
-        <v>1329737781.34</v>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
@@ -6350,8 +6359,8 @@
       <c r="B5" s="6">
         <v>63732.93</v>
       </c>
-      <c r="C5" s="6">
-        <v>63732.93</v>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
@@ -6433,7 +6442,7 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -6459,7 +6468,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7">
         <v>0.05</v>
@@ -6475,7 +6484,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
@@ -6491,7 +6500,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>

--- a/data/assetUnderMgmt.xlsx
+++ b/data/assetUnderMgmt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="24" activeTab="35"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -128,13 +128,13 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>£1,317,748,674.11</t>
-  </si>
-  <si>
-    <t>£1,317,685,596.62</t>
-  </si>
-  <si>
-    <t>£63,077.49</t>
+    <t>£1,342,436,552.59</t>
+  </si>
+  <si>
+    <t>£1,342,371,788.81</t>
+  </si>
+  <si>
+    <t>£64,763.78</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -254,13 +254,13 @@
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
-    <t>£168,862,816.77</t>
-  </si>
-  <si>
-    <t>£65,846,294.01</t>
-  </si>
-  <si>
-    <t>£103,016,522.76</t>
+    <t>£170,589,505.05</t>
+  </si>
+  <si>
+    <t>£67,166,454.92</t>
+  </si>
+  <si>
+    <t>£103,423,050.14</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -297,6 +297,13 @@
       <family val="3"/>
       <sz val="10"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <b/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,39 +481,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.249946592608417"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.249946592608417"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="172">
     <dxf>
       <font>
         <b/>
@@ -1993,14 +1975,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="46.9453125" customWidth="1"/>
-    <col min="2" max="3" width="31.20703125" customWidth="1"/>
-    <col min="4" max="4" width="19.3671875" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="22.15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +1990,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2023,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +2023,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2041,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2077,18 +2059,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -2130,20 +2112,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="42.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2158,7 +2140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2197,18 +2179,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -2218,32 +2200,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2260,20 +2242,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="37.83984375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2288,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2284,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2316,7 +2298,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2330,18 +2312,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -2351,32 +2333,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2393,20 +2375,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2421,7 +2403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2435,7 +2417,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2449,7 +2431,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2463,18 +2445,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -2484,32 +2466,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2526,20 +2508,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="56.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2554,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2550,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2582,7 +2564,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2596,18 +2578,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -2617,32 +2599,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2659,20 +2641,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="28.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2687,7 +2669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2701,7 +2683,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2697,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2729,18 +2711,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -2750,32 +2732,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2792,20 +2774,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="41.578125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2820,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2834,7 +2816,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2848,7 +2830,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2862,18 +2844,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -2883,32 +2865,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="83" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2925,20 +2907,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="25.05078125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2953,7 +2935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2949,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +2963,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2995,18 +2977,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -3016,32 +2998,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="87" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3058,20 +3040,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="3" width="29.62890625" customWidth="1"/>
+    <col min="2" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3086,7 +3068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3102,7 +3084,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3118,7 +3100,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3134,18 +3116,18 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -3155,32 +3137,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3197,20 +3179,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="27.9453125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3225,7 +3207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3239,7 +3221,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3253,7 +3235,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3267,18 +3249,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -3288,32 +3270,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="104" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="105" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3330,20 +3312,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3358,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3374,7 +3356,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3390,7 +3372,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3406,18 +3388,18 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -3427,32 +3409,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3469,12 +3451,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="29.3671875" customWidth="1"/>
-    <col min="3" max="3" width="70.15625" customWidth="1"/>
-    <col min="4" max="4" width="10.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,7 +3467,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3500,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +3498,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3532,7 +3514,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3548,20 +3530,20 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="9"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3604,20 +3586,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.20703125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3632,7 +3614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +3628,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3660,7 +3642,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3674,18 +3656,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -3695,32 +3677,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3737,20 +3719,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="19.05078125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3765,7 +3747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3761,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3793,7 +3775,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3807,18 +3789,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
@@ -3832,32 +3814,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="118" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="120" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="121" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3874,20 +3856,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="29.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -3902,7 +3884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3916,7 +3898,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +3912,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3944,18 +3926,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -3965,32 +3947,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="124" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4007,20 +3989,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="23.15625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4035,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4049,7 +4031,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4063,7 +4045,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4077,18 +4059,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="17"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="17"/>
       <c r="D8" s="12"/>
@@ -4098,32 +4080,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="128" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="129" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="130" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="128" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4140,20 +4122,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="33.3125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4168,7 +4150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4182,7 +4164,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4196,7 +4178,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4210,18 +4192,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -4231,32 +4213,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="134" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="135" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4273,20 +4255,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="22.1015625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4301,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4315,7 +4297,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4329,7 +4311,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4343,18 +4325,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -4364,32 +4346,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="140" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="141" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="142" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="143" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="144" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="145" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="141" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4406,21 +4388,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="40.41796875" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4435,7 +4417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4449,7 +4431,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4463,7 +4445,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4477,18 +4459,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -4498,32 +4480,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="146" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="147" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4540,20 +4522,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="52.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -4568,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4564,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4596,7 +4578,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4610,18 +4592,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -4631,32 +4613,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="152" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="153" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="154" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="155" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="156" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="157" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4673,23 +4655,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.5234375" customWidth="1"/>
-    <col min="2" max="2" width="31.26171875" customWidth="1"/>
-    <col min="3" max="3" width="30.1015625" customWidth="1"/>
-    <col min="4" max="4" width="13.734375" customWidth="1"/>
-    <col min="5" max="5" width="18.20703125" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -4704,7 +4686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4718,7 +4700,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4732,7 +4714,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4751,12 +4733,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4773,22 +4755,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="16.68359375" customWidth="1"/>
-    <col min="3" max="3" width="15.68359375" customWidth="1"/>
-    <col min="4" max="4" width="14.83984375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -4803,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4817,7 +4799,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4831,7 +4813,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4850,12 +4832,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="160" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="157" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4872,22 +4854,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="2" width="32.3125" customWidth="1"/>
-    <col min="3" max="3" width="39.41796875" customWidth="1"/>
-    <col min="4" max="4" width="10.3125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="16.9" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -4902,7 +4884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4918,7 +4900,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4934,7 +4916,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4950,18 +4932,18 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -5013,22 +4995,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="16.47265625" customWidth="1"/>
-    <col min="3" max="3" width="14.578125" customWidth="1"/>
-    <col min="4" max="4" width="14.15625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -5043,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5057,7 +5039,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5053,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5090,12 +5072,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5112,22 +5094,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="12.83984375" customWidth="1"/>
-    <col min="3" max="3" width="15.1015625" customWidth="1"/>
-    <col min="4" max="4" width="14.20703125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -5142,7 +5124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5156,7 +5138,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5170,7 +5152,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5189,12 +5171,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5211,22 +5193,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="13.47265625" customWidth="1"/>
-    <col min="3" max="3" width="16.7890625" customWidth="1"/>
-    <col min="4" max="4" width="16.5234375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -5241,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5255,7 +5237,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5269,7 +5251,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5288,12 +5270,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5310,22 +5292,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="14.3125" customWidth="1"/>
-    <col min="3" max="3" width="13.62890625" customWidth="1"/>
-    <col min="4" max="4" width="15.83984375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -5340,7 +5322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5354,7 +5336,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5368,7 +5350,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5387,12 +5369,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="168" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="169" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5409,22 +5391,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="14.89453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.62890625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -5439,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5453,7 +5435,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5467,7 +5449,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5486,12 +5468,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5508,23 +5490,23 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" customWidth="1"/>
-    <col min="3" max="3" width="13.68359375" customWidth="1"/>
-    <col min="4" max="4" width="17.15625" customWidth="1"/>
-    <col min="5" max="5" width="12.5234375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="28.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -5539,7 +5521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5553,7 +5535,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5567,7 +5549,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5586,12 +5568,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="172" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="173" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="169" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5602,21 +5584,22 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="30.578125" customWidth="1"/>
-    <col min="3" max="3" width="24.578125" customWidth="1"/>
-    <col min="4" max="4" width="13.62890625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>66</v>
       </c>
@@ -5625,7 +5608,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -5640,12 +5623,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>172522113.74</v>
+        <v>171677804.76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>67</v>
@@ -5655,15 +5638,16 @@
       </c>
       <c r="E3" s="8" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>FAIL</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>67198472.1</v>
+        <v>68127137.6</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>68</v>
@@ -5673,15 +5657,16 @@
       </c>
       <c r="E4" s="8" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>FAIL</v>
+      </c>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>105323641.64</v>
+        <v>103550667.16</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>69</v>
@@ -5691,20 +5676,21 @@
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
+        <v>FAIL</v>
+      </c>
+      <c r="G5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,7 +5705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -5732,7 +5718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -5747,20 +5733,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="37.3125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5775,7 +5761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5789,7 +5775,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5803,7 +5789,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5817,18 +5803,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -5880,21 +5866,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" customWidth="1"/>
-    <col min="3" max="3" width="22.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -5909,7 +5895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5923,7 +5909,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5937,7 +5923,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5951,18 +5937,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -6014,20 +6000,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="35.62890625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -6042,7 +6028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -6058,7 +6044,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -6074,7 +6060,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6090,7 +6076,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -6098,12 +6084,12 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -6155,20 +6141,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="32.5234375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -6183,7 +6169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -6197,7 +6183,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -6211,7 +6197,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6225,18 +6211,18 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -6282,26 +6268,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="3" width="33.9453125" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -6316,12 +6302,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>1329801514.27</v>
+        <v>1333651966.53</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>25</v>
@@ -6331,15 +6317,15 @@
       </c>
       <c r="E3" s="8" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
-        <v>1329737781.34</v>
+        <v>1333575743.1</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>26</v>
@@ -6349,15 +6335,15 @@
       </c>
       <c r="E4" s="8" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>63732.93</v>
+        <v>76223.42</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>27</v>
@@ -6367,56 +6353,20 @@
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
+        <v>FAIL</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6433,21 +6383,21 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="3" width="14.7890625" customWidth="1"/>
-    <col min="4" max="4" width="5.7890625" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -6462,7 +6412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -6478,7 +6428,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -6494,7 +6444,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6510,18 +6460,18 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="12"/>
@@ -6531,32 +6481,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/assetUnderMgmt.xlsx
+++ b/data/assetUnderMgmt.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="35"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="Sheet8" state="visible" r:id="rId11"/>
+    <sheet sheetId="36" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="8" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="Sheet8" state="visible" r:id="rId6"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId7"/>
+    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId9"/>
+    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId10"/>
+    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId11"/>
     <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId12"/>
     <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId13"/>
     <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId14"/>
@@ -31,18 +31,18 @@
     <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId25"/>
     <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId26"/>
     <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId27"/>
-    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
-    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
-    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
-    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId31"/>
-    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId32"/>
-    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId33"/>
-    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId34"/>
-    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId35"/>
-    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId36"/>
-    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId37"/>
-    <sheet sheetId="35" name="Sheet35" state="visible" r:id="rId38"/>
-    <sheet sheetId="36" name="Sheet36" state="visible" r:id="rId39"/>
+    <sheet sheetId="1" name="Sheet41" state="visible" r:id="rId28"/>
+    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId29"/>
+    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId30"/>
+    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId31"/>
+    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId32"/>
+    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId33"/>
+    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId34"/>
+    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId35"/>
+    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId36"/>
+    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId37"/>
+    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId38"/>
+    <sheet sheetId="35" name="Sheet35" state="visible" r:id="rId39"/>
     <sheet sheetId="37" name="Sheet37" state="visible" r:id="rId40"/>
     <sheet sheetId="38" name="Sheet38" state="visible" r:id="rId41"/>
   </sheets>
@@ -53,169 +53,181 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
   <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t>TOLERANCE</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total assets under management is </t>
+  </si>
+  <si>
+    <t>£166,269,776.15</t>
+  </si>
+  <si>
+    <t>Total assets invested in specific funds (Non lifestyle profile)</t>
+  </si>
+  <si>
+    <t>£66,122,617.70</t>
+  </si>
+  <si>
+    <t>Total assets invested in lifestyle profiles</t>
+  </si>
+  <si>
+    <t>£100,147,158.45</t>
+  </si>
+  <si>
+    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>YOUR M &amp; S PENSION SAVING PLAN</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>THE TESCO RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>8,873</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>["14,594","11,696","3,486","1,560","1,552","0"]</t>
+  </si>
+  <si>
+    <t>RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
+  </si>
+  <si>
+    <t>SERCO</t>
+  </si>
+  <si>
+    <t>RBS GROUP RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>1,884</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>["5,232","1,040","921","724","464","0"]</t>
+  </si>
+  <si>
+    <t>["TOTAL CALLS RECEIVED","8,381"]</t>
+  </si>
+  <si>
+    <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
+  </si>
+  <si>
+    <t>SAINSBURY'S SIPP</t>
+  </si>
+  <si>
+    <t>£150,853,255.00</t>
+  </si>
+  <si>
+    <t>£22,260,043.64</t>
+  </si>
+  <si>
+    <t>£128,593,211.37</t>
+  </si>
+  <si>
+    <t>SAVE THE CHILDREN UK GROUP PERSONAL PENSION</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>PACE DC - CO-OPERATIVE BANK SECTION AVCS</t>
+  </si>
+  <si>
+    <t>PACE DC - CO-OP SECTION AVCS</t>
+  </si>
+  <si>
+    <t>THE LEGAL &amp; GENERAL MASTERTRUST (SOMERFIELD TRANSFER PLAN)</t>
+  </si>
+  <si>
+    <t>BARCLAYS PENSION SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>LONDON STOCK EXCHANGE GROUP PENSION PLAN</t>
+  </si>
+  <si>
+    <t>KINGFISHER PENSION SCHEME</t>
+  </si>
+  <si>
+    <t>SAINSBURY'S PENSION SCHEME AVC</t>
+  </si>
+  <si>
+    <t>£10,617,236.45</t>
+  </si>
+  <si>
+    <t>£6,129,820.97</t>
+  </si>
+  <si>
+    <t>£4,487,415.48</t>
+  </si>
+  <si>
+    <t>ARGOS PERSONAL PENSION PLAN</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>SERCO WORKSAVE PENSION PLAN</t>
+  </si>
+  <si>
+    <t>PACE DC - CO-OPERATIVE BANK SECTION</t>
+  </si>
+  <si>
+    <t>THE M&amp;S AVC SCHEME</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>IKEA RETIREMENT INCOME SCHEME</t>
+  </si>
+  <si>
+    <t>FLEXIBLE RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>ACCENTURE RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
   <si>
-    <t>Master Data</t>
-  </si>
-  <si>
-    <t>Actual Data</t>
-  </si>
-  <si>
-    <t>TOLERANCE</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total assets under management is </t>
-  </si>
-  <si>
-    <t>Total assets invested in specific funds (Non lifestyle profile)</t>
-  </si>
-  <si>
-    <t>Total assets invested in lifestyle profiles</t>
-  </si>
-  <si>
-    <t>YOUR M &amp; S PENSION SAVING PLAN</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>THE TESCO RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>8,873</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>["14,594","11,696","3,486","1,560","1,552","0"]</t>
-  </si>
-  <si>
-    <t>RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
-  </si>
-  <si>
-    <t>SERCO</t>
-  </si>
-  <si>
-    <t>RBS GROUP RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>1,884</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>["5,232","1,040","921","724","464","0"]</t>
-  </si>
-  <si>
-    <t>["TOTAL CALLS RECEIVED","8,381"]</t>
-  </si>
-  <si>
-    <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>£1,342,436,552.59</t>
-  </si>
-  <si>
-    <t>£1,342,371,788.81</t>
-  </si>
-  <si>
-    <t>£64,763.78</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S SIPP</t>
-  </si>
-  <si>
-    <t>£150,853,255.00</t>
-  </si>
-  <si>
-    <t>£22,260,043.64</t>
-  </si>
-  <si>
-    <t>£128,593,211.37</t>
-  </si>
-  <si>
-    <t>SAVE THE CHILDREN UK GROUP PERSONAL PENSION</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>PACE DC - CO-OPERATIVE BANK SECTION AVCS</t>
-  </si>
-  <si>
-    <t>PACE DC - CO-OP SECTION AVCS</t>
-  </si>
-  <si>
-    <t>THE LEGAL &amp; GENERAL MASTERTRUST (SOMERFIELD TRANSFER PLAN)</t>
-  </si>
-  <si>
-    <t>BARCLAYS PENSION SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>LONDON STOCK EXCHANGE GROUP PENSION PLAN</t>
-  </si>
-  <si>
-    <t>KINGFISHER PENSION SCHEME</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S PENSION SCHEME AVC</t>
-  </si>
-  <si>
-    <t>£10,617,236.45</t>
-  </si>
-  <si>
-    <t>£6,129,820.97</t>
-  </si>
-  <si>
-    <t>£4,487,415.48</t>
-  </si>
-  <si>
-    <t>ARGOS PERSONAL PENSION PLAN</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>SERCO WORKSAVE PENSION PLAN</t>
-  </si>
-  <si>
-    <t>PACE DC - CO-OPERATIVE BANK SECTION</t>
-  </si>
-  <si>
-    <t>THE M&amp;S AVC SCHEME</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>IKEA RETIREMENT INCOME SCHEME</t>
-  </si>
-  <si>
-    <t>FLEXIBLE RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>ACCENTURE RETIREMENT SAVINGS PLAN</t>
+    <t>£170,589,505.05</t>
+  </si>
+  <si>
+    <t>£67,166,454.92</t>
+  </si>
+  <si>
+    <t>£103,423,050.14</t>
   </si>
   <si>
     <t>GREGGS PENSION SCHEME</t>
@@ -249,18 +261,6 @@
   </si>
   <si>
     <t>GF99556001 - THE NORCROS SECURITY PLAN</t>
-  </si>
-  <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>£170,589,505.05</t>
-  </si>
-  <si>
-    <t>£67,166,454.92</t>
-  </si>
-  <si>
-    <t>£103,423,050.14</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -291,12 +291,6 @@
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <family val="3"/>
-      <sz val="10"/>
-      <name val="Consolas"/>
     </font>
     <font>
       <b/>
@@ -347,24 +341,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="4"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -386,9 +369,7 @@
       <right style="thin">
         <color theme="4"/>
       </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -433,6 +414,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -444,45 +438,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1972,7 +1963,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
@@ -1984,21 +1975,21 @@
   <sheetData>
     <row r="1" ht="22.15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="14.45" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    <row r="2" ht="14.45" customHeight="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2006,73 +1997,73 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>56443188.25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
         <v>56443188.25</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>56443188.25</v>
-      </c>
-      <c r="C4" s="6">
-        <v>56443188.25</v>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2080,22 +2071,22 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D8">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D8">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="136" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2119,21 +2110,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2141,58 +2132,58 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2200,32 +2191,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2249,21 +2240,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2271,61 +2262,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2333,32 +2324,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2382,21 +2373,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2404,61 +2395,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2466,32 +2457,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2515,21 +2506,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2537,61 +2528,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2599,32 +2590,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2648,21 +2639,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2670,61 +2661,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2732,32 +2723,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2781,21 +2772,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2803,61 +2794,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2865,32 +2856,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2914,21 +2905,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2936,61 +2927,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -2998,32 +2989,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3047,21 +3038,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3069,67 +3060,67 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -3137,32 +3128,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3186,21 +3177,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3208,61 +3199,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -3270,32 +3261,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3319,21 +3310,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3341,67 +3332,67 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -3409,32 +3400,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3448,7 +3439,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
@@ -3461,21 +3452,21 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3483,70 +3474,70 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -3593,21 +3584,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3615,61 +3606,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -3677,32 +3668,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3726,21 +3717,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3748,63 +3739,63 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="12"/>
@@ -3814,32 +3805,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="112" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="113" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3863,21 +3854,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3885,61 +3876,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="14.45" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -3947,32 +3938,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="120" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="121" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3996,21 +3987,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4018,61 +4009,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -4080,32 +4071,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="125" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="126" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="127" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="128" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4129,21 +4120,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4151,61 +4142,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -4213,32 +4204,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="130" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="131" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="132" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4262,21 +4253,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4284,61 +4275,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -4346,32 +4337,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="136" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="137" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="139" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="141" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="142" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4396,21 +4387,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4418,61 +4409,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -4480,32 +4471,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="142" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="143" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="148" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="149" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4529,21 +4520,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4551,61 +4542,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -4613,32 +4604,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="151" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="152" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="153" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4665,21 +4656,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4687,43 +4678,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4733,12 +4724,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="157" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4764,21 +4755,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4786,43 +4777,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4832,12 +4823,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="156" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="157" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4863,21 +4854,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.9" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4885,67 +4876,67 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -5004,21 +4995,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5026,43 +5017,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -5072,12 +5063,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5103,21 +5094,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5125,43 +5116,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -5171,12 +5162,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="160" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5202,21 +5193,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5224,43 +5215,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -5270,12 +5261,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5301,21 +5292,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5323,43 +5314,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -5369,12 +5360,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5400,21 +5391,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5422,43 +5413,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -5468,12 +5459,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="169" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5500,21 +5491,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="28.9" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5522,43 +5513,43 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -5568,12 +5559,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="168" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="169" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5587,7 +5578,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
@@ -5600,23 +5591,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5624,73 +5615,73 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
-        <v>171677804.76</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="5">
+        <v>168869510.17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="G3" s="22"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>68127137.6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>66567484.37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="G4" s="22"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
-        <v>103550667.16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>69</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>102302025.81</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="G5" s="22"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5740,21 +5731,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5762,61 +5753,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -5874,21 +5865,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5896,61 +5887,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -6007,21 +5998,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6029,69 +6020,69 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -6148,21 +6139,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6170,61 +6161,61 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -6271,7 +6262,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
@@ -6281,21 +6272,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6303,55 +6294,55 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
-        <v>1333651966.53</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="B3" s="5">
+        <v>1323844059.2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1308406884.45</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1333575743.1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1323779867.31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1308325146.49</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
-        <v>76223.42</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>64191.89</v>
+      </c>
+      <c r="C5" s="5">
+        <v>81737.96</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -6361,12 +6352,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6391,21 +6382,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6413,67 +6404,67 @@
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="8" t="str">
+      <c r="D3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="7" t="str">
         <f>IF(AND((B3+(B3*D3))&gt;=C3,(B3-(B3*D3))&lt;=C3),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="9">
         <v>0.05</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>IF(AND((B4+(B4*D4))&gt;=C4,(B4-(B4*D4))&lt;=C4),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="9">
         <v>0.05</v>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="E5" s="7" t="str">
         <f>IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="12"/>
     </row>
   </sheetData>
@@ -6481,32 +6472,32 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
